--- a/data/resumes_scrubbed/legislative_activity/114_2.xlsx
+++ b/data/resumes_scrubbed/legislative_activity/114_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/legislative_activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4E78424E-BD49-45DB-9A55-2C61CB75C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{4E78424E-BD49-45DB-9A55-2C61CB75C64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFFE302D-E6B1-405B-86C6-4F291C429216}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="114_2" sheetId="1" r:id="rId1"/>
@@ -151,16 +151,16 @@
     <t xml:space="preserve">     Measures introduced, Simple resolutions </t>
   </si>
   <si>
-    <t>780 hrs.,58'</t>
-  </si>
-  <si>
     <t>633 hrs., 15'</t>
+  </si>
+  <si>
+    <t>780 hrs., 58'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1117,10 +1117,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
